--- a/datos_contratos.xlsx
+++ b/datos_contratos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\Proyecto Personal\GenContratos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F04138C-8B59-4E9B-9A5D-925A546763DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E50108-1ED7-41A4-A3E2-6DC8B36CA786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -416,7 +416,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -424,10 +424,10 @@
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="2" max="2" width="13.21875" customWidth="1"/>
     <col min="3" max="3" width="13.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
     <col min="6" max="6" width="17.33203125" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
